--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1040836.39878987</v>
+        <v>-1043177.371949041</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>122.7724677851147</v>
+        <v>226.6326402368611</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>59.48277480498337</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>125.3749784339643</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>131.5166709741981</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>45.23165055802752</v>
+        <v>69.295257418451</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>89.78463339148466</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>152.1612812530912</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>202.8429771904016</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.76159953697056</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.7418908107068</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.80535061811339</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056112</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>138.7178665021163</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.15801540767841</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>126.096050490236</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.8736893618629</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>27.18948638822775</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.1589636954529</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>254.9671879163735</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.26790245020028</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,7 +3193,7 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797721</v>
       </c>
       <c r="F34" t="n">
         <v>98.44591140433866</v>
@@ -3205,7 +3205,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145565</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534548</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1493.439310854421</v>
+        <v>1247.028378099648</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.426717132083</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.161018525332</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2363.402123606654</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2010.633468336539</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1637.16771007546</v>
       </c>
       <c r="Y2" t="n">
-        <v>1493.439310854421</v>
+        <v>1247.028378099648</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.137349737077</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.137349737077</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D5" t="n">
-        <v>1049.871651130326</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E5" t="n">
-        <v>664.0833985320819</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="F5" t="n">
-        <v>253.0974937424743</v>
+        <v>451.1329112979485</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.737189801198</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>426.2840617486069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>426.2840617486069</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>426.2840617486069</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.2840617486069</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1372.955922978507</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1003.993406038096</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1003.993406038096</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1003.993406038096</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>484.423641878219</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>484.423641878219</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157142</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C13" t="n">
-        <v>492.7083461157142</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>342.5917067033785</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>342.5917067033785</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230349</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024462</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987501</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894841</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.356810945954</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5276,46 +5276,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.6864413838534</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C16" t="n">
-        <v>540.7502584559466</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="D16" t="n">
-        <v>390.6336190436108</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="E16" t="n">
-        <v>390.6336190436108</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F16" t="n">
-        <v>390.6336190436108</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>222.9307824183298</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626701</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V16" t="n">
-        <v>999.103611420814</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838534</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838534</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.6864413838534</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.3166934139181</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3805104860112</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1574.886178535709</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1285.783311661353</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V19" t="n">
-        <v>1031.098823455466</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W19" t="n">
-        <v>1031.098823455466</v>
+        <v>1362.597777560994</v>
       </c>
       <c r="X19" t="n">
-        <v>803.1092725574482</v>
+        <v>1134.608226662977</v>
       </c>
       <c r="Y19" t="n">
-        <v>582.3166934139181</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,16 +5735,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5756,13 +5756,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5853,16 +5853,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.789495593986</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>962.7999446959689</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.0073655524387</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1937.890136708704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1746.20425253553</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1524.437637105056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1235.3347702307</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>980.6502820248129</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>691.2331119878522</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>463.2435610898349</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.7782212305366</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>241.7782212305366</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U28" t="n">
-        <v>1195.517895201641</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V28" t="n">
-        <v>940.8334069957543</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="W28" t="n">
-        <v>651.4162369587937</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X28" t="n">
-        <v>423.4266860607763</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.4266860607763</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6446,34 +6446,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6491,22 +6491,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6531,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,22 +6634,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E34" t="n">
         <v>463.8981507430894</v>
@@ -6847,10 +6847,10 @@
         <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6886,10 +6886,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143015</v>
@@ -6923,64 +6923,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1797.117834600129</v>
+        <v>1586.925993846825</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272054</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7090,10 +7090,10 @@
         <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K37" t="n">
         <v>437.6816203490197</v>
@@ -7114,7 +7114,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829557</v>
@@ -7129,7 +7129,7 @@
         <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W37" t="n">
         <v>1276.596863849072</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,55 +7169,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2649.230460361821</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7479,22 +7479,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E43" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036719</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,10 +7725,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,16 +9404,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792323</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>146.0713065388582</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400279</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.6402515341465</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>260.8629602220893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>45.61569740481785</v>
+        <v>145.4210480229294</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,16 +23464,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>113.4197768217117</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>132.2759472388908</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>18.65896442408481</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056094</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>31.67525991430628</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>259.3335119483633</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.67301648648437</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335964134057178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>70.66335656800726</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>31.24465028923936</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.4417529388369</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1269444.277432542</v>
+        <v>1269444.277432543</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>172775.192622652</v>
       </c>
       <c r="C2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="D2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="D2" t="n">
-        <v>184734.3982194636</v>
-      </c>
       <c r="E2" t="n">
+        <v>178686.8040991427</v>
+      </c>
+      <c r="F2" t="n">
         <v>178686.8040991425</v>
-      </c>
-      <c r="F2" t="n">
-        <v>178686.8040991427</v>
       </c>
       <c r="G2" t="n">
         <v>178686.8040991426</v>
       </c>
       <c r="H2" t="n">
+        <v>178686.8040991427</v>
+      </c>
+      <c r="I2" t="n">
         <v>178686.8040991424</v>
       </c>
-      <c r="I2" t="n">
-        <v>178686.8040991426</v>
-      </c>
       <c r="J2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991427</v>
       </c>
       <c r="K2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991424</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
         <v>184734.398219464</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26430,34 +26430,34 @@
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918991</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="L4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="N4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33605.65329740903</v>
+      </c>
+      <c r="P4" t="n">
         <v>33605.65329740898</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.653297409</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653063.0257141594</v>
+        <v>-653195.9057763461</v>
       </c>
       <c r="C6" t="n">
-        <v>-81473.36670107374</v>
+        <v>-81473.3667010738</v>
       </c>
       <c r="D6" t="n">
-        <v>-81473.36670107377</v>
+        <v>-81473.36670107373</v>
       </c>
       <c r="E6" t="n">
-        <v>-663222.6204671678</v>
+        <v>-663289.8159573933</v>
       </c>
       <c r="F6" t="n">
-        <v>64154.79352623907</v>
+        <v>64087.5980360131</v>
       </c>
       <c r="G6" t="n">
-        <v>64154.79352623901</v>
+        <v>64087.59803601319</v>
       </c>
       <c r="H6" t="n">
-        <v>64154.79352623886</v>
+        <v>64087.59803601327</v>
       </c>
       <c r="I6" t="n">
-        <v>64154.79352623895</v>
+        <v>64087.59803601307</v>
       </c>
       <c r="J6" t="n">
-        <v>-112268.4256663539</v>
+        <v>-112335.6211565795</v>
       </c>
       <c r="K6" t="n">
-        <v>64154.79352623901</v>
+        <v>64087.59803601306</v>
       </c>
       <c r="L6" t="n">
-        <v>13215.96461307874</v>
+        <v>13215.9646130788</v>
       </c>
       <c r="M6" t="n">
-        <v>-78846.24093099199</v>
+        <v>-78846.24093099192</v>
       </c>
       <c r="N6" t="n">
-        <v>50796.0739079529</v>
+        <v>50796.07390795293</v>
       </c>
       <c r="O6" t="n">
-        <v>50796.07390795287</v>
+        <v>50796.07390795276</v>
       </c>
       <c r="P6" t="n">
-        <v>50796.07390795293</v>
+        <v>50796.0739079527</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="3">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>242.5004239858928</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>268.2694836651515</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.03533246204697</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>13.9043770487331</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5525194627675</v>
+        <v>344.488912602344</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>77.52516886756625</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>134.1205929888865</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>204.0330685513098</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.4793691804425</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>6.781107525884238</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.774407299222456e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789498</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502552</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>684.9924223690849</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282469</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
